--- a/Melonama Experiments.xlsx
+++ b/Melonama Experiments.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dreamer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2145B06B-0069-4A35-B44C-5F823570C8E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F8F834-D84E-45D3-97ED-A85B8151751D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A6140902-CA3E-4AE5-BAA4-A6D0536C8E55}"/>
   </bookViews>
   <sheets>
     <sheet name="training results" sheetId="1" r:id="rId1"/>
     <sheet name="data directories" sheetId="2" r:id="rId2"/>
-    <sheet name="KfoldFiles" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="55">
   <si>
     <t>external data</t>
   </si>
@@ -43,9 +42,6 @@
     <t>model</t>
   </si>
   <si>
-    <t>test leaderboard score</t>
-  </si>
-  <si>
     <t>crop size</t>
   </si>
   <si>
@@ -86,9 +82,6 @@
   </si>
   <si>
     <t>train files</t>
-  </si>
-  <si>
-    <t>256 short side</t>
   </si>
   <si>
     <t>224 x 224</t>
@@ -183,6 +176,42 @@
   </si>
   <si>
     <t>Column3</t>
+  </si>
+  <si>
+    <t>train_256_cc</t>
+  </si>
+  <si>
+    <t>256 shorter side image but with color constancy (preprocessed)</t>
+  </si>
+  <si>
+    <t>loss fn</t>
+  </si>
+  <si>
+    <t>BCE</t>
+  </si>
+  <si>
+    <t>RandomScale, Rotate(15), RandomBrightnessContrast, Flip, Shear, Cutout, Normalize</t>
+  </si>
+  <si>
+    <t>224x224</t>
+  </si>
+  <si>
+    <t>Focal Loss</t>
+  </si>
+  <si>
+    <t>256x256</t>
+  </si>
+  <si>
+    <t>Weighted BCE</t>
+  </si>
+  <si>
+    <t>test score</t>
+  </si>
+  <si>
+    <t>model path (best auc)</t>
+  </si>
+  <si>
+    <t>model path (lowest val loss)</t>
   </si>
 </sst>
 </file>
@@ -253,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -270,13 +299,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -284,6 +337,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -291,6 +354,26 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -304,26 +387,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="4" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="4" tint="0.499984740745262"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -339,32 +402,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CABE7B8-2EB7-4C08-AE43-6134C9462B2F}" name="Table1" displayName="Table1" ref="A1:O3" totalsRowShown="0" headerRowBorderDxfId="4" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A1:O3" xr:uid="{DC27DC19-305B-4A68-9AE4-E70DC9471F21}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{C7A8E766-94E4-435F-90C3-1D7C61384AE1}" name="date" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CABE7B8-2EB7-4C08-AE43-6134C9462B2F}" name="Table1" displayName="Table1" ref="A1:R18" totalsRowShown="0" headerRowBorderDxfId="2" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A1:R18" xr:uid="{DC27DC19-305B-4A68-9AE4-E70DC9471F21}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{C7A8E766-94E4-435F-90C3-1D7C61384AE1}" name="date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{EE5EADC3-9E83-4C6E-BCE6-CB869857A383}" name="external data"/>
     <tableColumn id="3" xr3:uid="{3017CD05-7FAA-47D9-B7AA-A474E1D6CE2A}" name="model"/>
     <tableColumn id="4" xr3:uid="{9ABCE8B0-04F6-4320-B809-389501656823}" name="cc"/>
     <tableColumn id="5" xr3:uid="{FAE10277-BA20-4676-8E99-1BFF3108D7F6}" name="data augmentation"/>
     <tableColumn id="6" xr3:uid="{1FDCC91D-A611-476C-96DA-52AB3AA5A51A}" name="train files"/>
     <tableColumn id="7" xr3:uid="{309BC53C-40E0-4B3B-9662-FBD3F8B03759}" name="crop size"/>
-    <tableColumn id="8" xr3:uid="{26DAE5DF-9DDA-4369-958E-BA75CBFAB960}" name="learning rate" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{26DAE5DF-9DDA-4369-958E-BA75CBFAB960}" name="learning rate" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{D2D26404-4F65-42C4-AA98-6FC9DBFF23F2}" name="kfold"/>
     <tableColumn id="10" xr3:uid="{E6D5AA06-60E4-48ED-A0D3-25F8B4A83A2D}" name="train batch size"/>
     <tableColumn id="11" xr3:uid="{6D248571-D7DF-40E2-AFEF-1BFF8A1AEDE8}" name="cv scheme"/>
+    <tableColumn id="16" xr3:uid="{97524E9A-AA4D-4A18-AF96-30073B646BCC}" name="loss fn"/>
     <tableColumn id="14" xr3:uid="{8D790A27-0E8F-40F3-AE41-5CD9DD84200C}" name="early stopping"/>
     <tableColumn id="15" xr3:uid="{6B9EC63F-C7AA-4A79-96C5-A46A802C2501}" name="epochs trained"/>
     <tableColumn id="12" xr3:uid="{57A53C35-6892-470E-A4BC-719529243B8B}" name="cv score"/>
-    <tableColumn id="13" xr3:uid="{5E9886B8-DFB0-4267-B6E2-D48DDC4F51CE}" name="test leaderboard score"/>
+    <tableColumn id="13" xr3:uid="{5E9886B8-DFB0-4267-B6E2-D48DDC4F51CE}" name="test score"/>
+    <tableColumn id="17" xr3:uid="{3F17FE92-FFB6-4AAC-AF9C-8B255CF29D91}" name="model path (best auc)"/>
+    <tableColumn id="18" xr3:uid="{7C12A798-54C7-4889-8334-4D77D028A5A1}" name="model path (lowest val loss)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{447A6A57-4C4C-4B4E-A6C9-65610FA46171}" name="Table4" displayName="Table4" ref="B1:D10" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" headerRowCellStyle="Hyperlink">
-  <autoFilter ref="B1:D10" xr:uid="{6E1F333A-12FA-461F-ABAA-2567570A9A0F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{447A6A57-4C4C-4B4E-A6C9-65610FA46171}" name="Table4" displayName="Table4" ref="B1:D11" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" headerRowCellStyle="Hyperlink">
+  <autoFilter ref="B1:D11" xr:uid="{6E1F333A-12FA-461F-ABAA-2567570A9A0F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CF552701-DCB8-42EC-A8CA-F349DAAA889B}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{48E3CB09-E2F5-4B86-9E25-A1CE663B781F}" name="Column2"/>
@@ -671,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7E382D-4B0C-459A-9A9D-1FD2379ABBA3}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="A2:N2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,22 +748,26 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -706,63 +776,72 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44003</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3">
         <v>4.0000000000000002E-4</v>
@@ -774,24 +853,738 @@
         <v>128</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3">
         <v>14</v>
       </c>
-      <c r="M2">
-        <v>11</v>
-      </c>
-      <c r="N2">
-        <v>0.90800000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="H3" s="3"/>
+      <c r="O3">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>15</v>
+      </c>
+      <c r="O4">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>28</v>
+      </c>
+      <c r="O5">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>128</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>128</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>12</v>
+      </c>
+      <c r="O8">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9">
+        <v>13</v>
+      </c>
+      <c r="O9">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>128</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>128</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>128</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>128</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1048576" s="9"/>
+      <c r="B1048576" s="7"/>
+      <c r="C1048576" s="7"/>
+      <c r="D1048576" s="7"/>
+      <c r="E1048576" s="10"/>
+      <c r="F1048576" s="7"/>
+      <c r="G1048576" s="7"/>
+      <c r="H1048576" s="11"/>
+      <c r="I1048576" s="7"/>
+      <c r="J1048576" s="7"/>
+      <c r="K1048576" s="7"/>
+      <c r="L1048576" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N1:N1048576">
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -812,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FE2019-D992-43FB-981E-20BD9770EAFE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,117 +1620,128 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>58458</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>10983</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>10983</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>10983</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>10983</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>33127</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>58458</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>58458</v>
       </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
+      <c r="D10" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>58458</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -947,16 +1751,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BA8E6E-9F0F-4F04-AD3C-2E5515C01FEC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>